--- a/WebRoot/static/template/budget/銷售收入預測表_下载backlog.xlsx
+++ b/WebRoot/static/template/budget/銷售收入預測表_下载backlog.xlsx
@@ -96,9 +96,6 @@
     <t>產品系列</t>
   </si>
   <si>
-    <t>机种</t>
-  </si>
-  <si>
     <t xml:space="preserve">PM </t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>報告幣種（美元）</t>
+  </si>
+  <si>
+    <t>機種</t>
   </si>
 </sst>
 </file>
@@ -336,6 +336,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -360,18 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -665,7 +665,7 @@
       <pane xSplit="15" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -675,23 +675,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -702,74 +702,74 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
     </row>
     <row r="2" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="16"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="20"/>
       <c r="Z2" s="5" t="s">
         <v>16</v>
       </c>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1">
@@ -890,10 +890,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -911,80 +911,80 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18"/>
-      <c r="BJ3" s="18"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -994,17 +994,17 @@
     <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="BJ2" name="Range1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="Z3:AK3"/>
-    <mergeCell ref="AL3:AW3"/>
-    <mergeCell ref="AX3:BJ3"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="Z1:AK1"/>
     <mergeCell ref="AL1:AW1"/>
     <mergeCell ref="AX1:BJ1"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="Z3:AK3"/>
+    <mergeCell ref="AL3:AW3"/>
+    <mergeCell ref="AX3:BJ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
